--- a/Tabelas Consulta/Banco de Dados/banco de dados - EUROFINS.xlsx
+++ b/Tabelas Consulta/Banco de Dados/banco de dados - EUROFINS.xlsx
@@ -7571,7 +7571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938BEEC-E643-4215-903C-15CD96F4E3EB}">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
